--- a/g.xlsx
+++ b/g.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951"/>
+    <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="thai waitress" sheetId="29" r:id="rId1"/>
+    <sheet name="Ploy" sheetId="29" r:id="rId1"/>
     <sheet name="Anne" sheetId="27" r:id="rId2"/>
     <sheet name="Breadtop girl" sheetId="26" r:id="rId3"/>
     <sheet name="400bustop girl" sheetId="1" r:id="rId4"/>
@@ -38,8 +38,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Joshua</author>
+  </authors>
+  <commentList>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Joshua:
+Not sure the cause. Could be because lack of mast yesterday. No alcohol. Breakfast was gaytime and hotdog. Just played boardgame. Sleep was with opiates. Was trying to start analyse strat (look at girls who exhibit positive body lang). </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="163">
   <si>
     <t>O</t>
   </si>
@@ -453,6 +478,81 @@
   </si>
   <si>
     <t>I completely misread Dewy</t>
+  </si>
+  <si>
+    <t>Very neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No eye contact. Not wanting to talk at all. </t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Strong eye contact and smiles. Nice Josh when she sees me on leave.</t>
+  </si>
+  <si>
+    <t>I didn't really say much. I feel awkward because I think I get laughed at by em.</t>
+  </si>
+  <si>
+    <t>21/9/</t>
+  </si>
+  <si>
+    <t>Monday 1-2pm</t>
+  </si>
+  <si>
+    <t>Extremely positive</t>
+  </si>
+  <si>
+    <t>Lots of eye contact. I love her.</t>
+  </si>
+  <si>
+    <t>Tuesday 3:40</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Tried to ask her out when she was going home. Seemed like she wanted to go away. Masted prone yesterday</t>
+  </si>
+  <si>
+    <t>Thurs</t>
+  </si>
+  <si>
+    <t>Slight positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri </t>
+  </si>
+  <si>
+    <t>Rejected. Tried to ask her to help with Thai after work. Fuck Anne.</t>
+  </si>
+  <si>
+    <t>Saturday mornin</t>
+  </si>
+  <si>
+    <t>very negative</t>
+  </si>
+  <si>
+    <t>Arms crossed and sideways. I spoke a little Thai.</t>
+  </si>
+  <si>
+    <t>Monday labor day morning</t>
+  </si>
+  <si>
+    <t>Slightly neg</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Mood impact lessened due to alcohol, porn mast or planning to purchase ebay mtg</t>
   </si>
 </sst>
 </file>
@@ -463,7 +563,7 @@
     <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00;[Red]&quot;-&quot;[$$-C09]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -505,6 +605,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -856,12 +963,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="58.125" customWidth="1"/>
@@ -931,7 +1039,18 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>42266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
       <c r="F5" t="s">
         <v>136</v>
       </c>
@@ -1562,15 +1681,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
@@ -1696,9 +1816,148 @@
         <v>123</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42259</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42269</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/g.xlsx
+++ b/g.xlsx
@@ -59,12 +59,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joshua:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No aocohol. No breakfast. Yesterday prone mast.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="187">
   <si>
     <t>O</t>
   </si>
@@ -553,6 +577,78 @@
   </si>
   <si>
     <t>Mood impact lessened due to alcohol, porn mast or planning to purchase ebay mtg</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Good m10</t>
+  </si>
+  <si>
+    <t>Good mood impact despite anne doing nothing out of the ordinary. Not sure why</t>
+  </si>
+  <si>
+    <t>Friday morning</t>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>Smiled and talked to me when walked past me. Also made some small talk talking about Pui. Maybe Pui is positive ROI</t>
+  </si>
+  <si>
+    <t>No mast day before, no breakfast.</t>
+  </si>
+  <si>
+    <t>Monday morning</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Spoke Thai and talked to me on approach and gave me Coffee</t>
+  </si>
+  <si>
+    <t>Tuesday morning</t>
+  </si>
+  <si>
+    <t>No eye contact no smiles. John was there. Avoided me by going to kitchen.</t>
+  </si>
+  <si>
+    <t>Sandy working with Chinese boy</t>
+  </si>
+  <si>
+    <t>Anne looks at me twice when giving me coffee with big smile. She's so cute.</t>
+  </si>
+  <si>
+    <t>Neutral/worried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think that Anne talks about me to her boss because I keep trying to talk to her. </t>
+  </si>
+  <si>
+    <t>I think that when I am around she will go to the kitchen. She hates talking to me.</t>
+  </si>
+  <si>
+    <t>Imagine if some old ugly woman kept buying OJ and tried to talk to you all the time. Like super ugly and fat.</t>
+  </si>
+  <si>
+    <t>But she uses my name a lot though. It doesn't suit…</t>
+  </si>
+  <si>
+    <t>I feel so sad I have no more ideas.</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Alcohol before prob lowers paranoia</t>
+  </si>
+  <si>
+    <t>Also mast with imagination and FL no orgsm</t>
   </si>
 </sst>
 </file>
@@ -563,7 +659,7 @@
     <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00;[Red]&quot;-&quot;[$$-C09]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -608,6 +704,12 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1682,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1952,6 +2054,166 @@
       </c>
       <c r="F20" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="9">
+        <v>42286</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/g.xlsx
+++ b/g.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHubDump\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951" activeTab="1"/>
   </bookViews>
@@ -44,7 +39,7 @@
     <author>Joshua</author>
   </authors>
   <commentList>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0" shapeId="0">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -716,12 +711,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -744,7 +745,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -755,6 +756,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -819,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,7 +856,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1786,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1928,7 +1930,7 @@
       <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="9">
@@ -1948,7 +1950,7 @@
       <c r="C13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>122</v>
       </c>
       <c r="F13" t="s">
@@ -1965,7 +1967,7 @@
       <c r="C14" t="s">
         <v>141</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E14" t="s">
@@ -2063,7 +2065,7 @@
       <c r="C21" t="s">
         <v>163</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F21" t="s">
@@ -2080,7 +2082,7 @@
       <c r="C22" t="s">
         <v>163</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
         <v>167</v>
       </c>
       <c r="E22" s="9">
@@ -2204,7 +2206,7 @@
       <c r="C33" t="s">
         <v>183</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F33" t="s">

--- a/g.xlsx
+++ b/g.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHubDump\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951" activeTab="1"/>
+    <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Ploy" sheetId="29" r:id="rId1"/>
-    <sheet name="Anne" sheetId="27" r:id="rId2"/>
-    <sheet name="Breadtop girl" sheetId="26" r:id="rId3"/>
-    <sheet name="400bustop girl" sheetId="1" r:id="rId4"/>
-    <sheet name="Unpredicted" sheetId="10" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
-    <sheet name="Bo" sheetId="12" r:id="rId7"/>
-    <sheet name="Failure rate" sheetId="13" r:id="rId8"/>
-    <sheet name="Amy" sheetId="14" r:id="rId9"/>
-    <sheet name="Sheriel" sheetId="15" r:id="rId10"/>
-    <sheet name="Hierarchy" sheetId="16" r:id="rId11"/>
-    <sheet name="Body language" sheetId="17" r:id="rId12"/>
-    <sheet name="Pam" sheetId="20" r:id="rId13"/>
-    <sheet name="Sab" sheetId="18" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="28" r:id="rId15"/>
-    <sheet name="BusGirl" sheetId="19" r:id="rId16"/>
-    <sheet name="Yoona copy" sheetId="21" r:id="rId17"/>
-    <sheet name="KrissyEricka" sheetId="22" r:id="rId18"/>
-    <sheet name="Tiffany" sheetId="23" r:id="rId19"/>
-    <sheet name="Desiree" sheetId="24" r:id="rId20"/>
-    <sheet name="iga girl" sheetId="25" r:id="rId21"/>
+    <sheet name="Analysis" sheetId="30" r:id="rId1"/>
+    <sheet name="Ploy" sheetId="29" r:id="rId2"/>
+    <sheet name="Anne" sheetId="27" r:id="rId3"/>
+    <sheet name="Breadtop girl" sheetId="26" r:id="rId4"/>
+    <sheet name="400bustop girl" sheetId="1" r:id="rId5"/>
+    <sheet name="Unpredicted" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId7"/>
+    <sheet name="Bo" sheetId="12" r:id="rId8"/>
+    <sheet name="Failure rate" sheetId="13" r:id="rId9"/>
+    <sheet name="Amy" sheetId="14" r:id="rId10"/>
+    <sheet name="Sheriel" sheetId="15" r:id="rId11"/>
+    <sheet name="Hierarchy" sheetId="16" r:id="rId12"/>
+    <sheet name="Body language" sheetId="17" r:id="rId13"/>
+    <sheet name="Pam" sheetId="20" r:id="rId14"/>
+    <sheet name="Sab" sheetId="18" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId16"/>
+    <sheet name="BusGirl" sheetId="19" r:id="rId17"/>
+    <sheet name="Yoona copy" sheetId="21" r:id="rId18"/>
+    <sheet name="KrissyEricka" sheetId="22" r:id="rId19"/>
+    <sheet name="Tiffany" sheetId="23" r:id="rId20"/>
+    <sheet name="Desiree" sheetId="24" r:id="rId21"/>
+    <sheet name="iga girl" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -39,7 +45,7 @@
     <author>Joshua</author>
   </authors>
   <commentList>
-    <comment ref="F14" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="216">
   <si>
     <t>O</t>
   </si>
@@ -644,6 +650,93 @@
   </si>
   <si>
     <t>Also mast with imagination and FL no orgsm</t>
+  </si>
+  <si>
+    <t>Wedbnes</t>
+  </si>
+  <si>
+    <t>Small?</t>
+  </si>
+  <si>
+    <t>Slghtly positive</t>
+  </si>
+  <si>
+    <t>Em takes my order of OJ but Anne somehow positions herself in front of me at the end.</t>
+  </si>
+  <si>
+    <t>Also looks back towards me when she went to the back room.</t>
+  </si>
+  <si>
+    <t>FL mast no org day before</t>
+  </si>
+  <si>
+    <t>Used imagination for mast mostly</t>
+  </si>
+  <si>
+    <t>Alcohol pre event</t>
+  </si>
+  <si>
+    <t>Ploy</t>
+  </si>
+  <si>
+    <t>Kingsford Thai Goddess</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>I have no choice</t>
+  </si>
+  <si>
+    <t>She's older than me.</t>
+  </si>
+  <si>
+    <t>She's not adverse to standing next to me</t>
+  </si>
+  <si>
+    <t>Follow walked inside IGA</t>
+  </si>
+  <si>
+    <t>She's very pretty</t>
+  </si>
+  <si>
+    <t>Misread Dewy and Ploy and Anne completely</t>
+  </si>
+  <si>
+    <t>MTG strat</t>
+  </si>
+  <si>
+    <t>I can't even lose weight</t>
+  </si>
+  <si>
+    <t>I don't have any motivation to actually talk to her.</t>
+  </si>
+  <si>
+    <t>I don’t' have any motivation to talk to Anne</t>
+  </si>
+  <si>
+    <t>Looked and nodded at me when passing. No smiles. Not much talking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sat morning</t>
+  </si>
+  <si>
+    <t>Hanging around my table. Asked me about my coffee.</t>
+  </si>
+  <si>
+    <t>Tues morning</t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
+    <t>Anne smiles when she burnt something and wanted to let me know. No effect on mood because when I went to buy OJ I didn't get to talk to her.</t>
+  </si>
+  <si>
+    <t>Wed morning</t>
+  </si>
+  <si>
+    <t>Hand mast yesterday. Positions at the counter when I buy OJ even though Pui takes my order and leaves.</t>
   </si>
 </sst>
 </file>
@@ -711,18 +804,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -745,7 +832,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -756,7 +843,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -821,7 +907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,7 +942,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1065,6 +1151,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.125" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>10000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1">
+        <f>SUM(C:C)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>41300</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>41303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>-50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>41372</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>41379</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>41323</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <f>SUM(B:B)</f>
+        <v>-1986490</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>-200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-1000000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>41290</v>
+      </c>
+      <c r="B4">
+        <v>-1000000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>41305</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>41398</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>41497</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>41515</v>
+      </c>
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>-5000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>41518</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>-10000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>41286</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="5">
+        <f>SUM(A:A)</f>
+        <v>508200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>500000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>-2000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="5">
+        <v>110000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5">
+        <f>SUM(B:B)</f>
+        <v>1819000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="5">
+        <v>500000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>200000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>-2000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>-10000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>41305</v>
+      </c>
+      <c r="B8">
+        <v>1000000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>41308</v>
+      </c>
+      <c r="B9">
+        <v>-1000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>41374</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>41512</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>41395</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>41504</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>-1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-7000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1169,593 +2127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="F1">
-        <f>SUM(B:B)</f>
-        <v>-1986490</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>-200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>-1000000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>41290</v>
-      </c>
-      <c r="B4">
-        <v>-1000000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>41305</v>
-      </c>
-      <c r="B5">
-        <v>500</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>41398</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>41497</v>
-      </c>
-      <c r="B10">
-        <v>5000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>41515</v>
-      </c>
-      <c r="B12">
-        <v>3000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>-5000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>41518</v>
-      </c>
-      <c r="B14">
-        <v>10000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15">
-        <v>5000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>-10000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>41286</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="5">
-        <f>SUM(A:A)</f>
-        <v>508200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>500000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>10000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>-2000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="5">
-        <v>110000</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="5">
-        <f>SUM(B:B)</f>
-        <v>1819000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
-        <v>500000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
-        <v>200000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
-        <v>20000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
-        <v>-2000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>-10000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>41305</v>
-      </c>
-      <c r="B8">
-        <v>1000000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>41308</v>
-      </c>
-      <c r="B9">
-        <v>-1000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
-        <v>41374</v>
-      </c>
-      <c r="B1">
-        <v>1000</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>41512</v>
-      </c>
-      <c r="B2">
-        <v>5000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
-        <v>41395</v>
-      </c>
-      <c r="B1">
-        <v>10000</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
-        <v>41504</v>
-      </c>
-      <c r="B1">
-        <v>10000</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>-1000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>-7000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -1784,448 +2156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="4">
-        <v>42249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="9">
-        <v>42259</v>
-      </c>
-      <c r="F12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="9">
-        <v>42269</v>
-      </c>
-      <c r="F15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="9">
-        <v>42286</v>
-      </c>
-      <c r="F22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2260,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2290,6 +2221,552 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42259</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42269</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="9">
+        <v>42286</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2315,7 +2792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2352,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
@@ -2643,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2685,7 +3162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2731,7 +3208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2938,164 +3415,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.125" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1">
-        <v>10000</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1">
-        <f>SUM(C:C)</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>41300</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>41303</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>41372</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>41379</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>41323</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/g.xlsx
+++ b/g.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951" activeTab="2"/>
+    <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="30" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="218">
   <si>
     <t>O</t>
   </si>
@@ -737,6 +737,12 @@
   </si>
   <si>
     <t>Hand mast yesterday. Positions at the counter when I buy OJ even though Pui takes my order and leaves.</t>
+  </si>
+  <si>
+    <t>Saw her and she was smiling didn't enter the store</t>
+  </si>
+  <si>
+    <t>Saw her from far away</t>
   </si>
 </sst>
 </file>
@@ -2023,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2118,8 +2124,25 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
       <c r="F6" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>42315</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
